--- a/data/CurrentLogDatasheet.xlsx
+++ b/data/CurrentLogDatasheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\App-Dev-2-Vargas\Diner-Ecommerce-Vargas-Project-main\mapua-lab-usage-and-monitoring\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F808C1E6-CD57-41E2-90F2-12A2FA157EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EEE1A1-43B2-4F03-802B-BA3D76149D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="1545" windowWidth="16305" windowHeight="11295" xr2:uid="{8C67381B-C88C-433D-AA1A-AD7533F48EDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{8C67381B-C88C-433D-AA1A-AD7533F48EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -97,18 +98,6 @@
   </si>
   <si>
     <t>Time In</t>
-  </si>
-  <si>
-    <t>James, Rob</t>
-  </si>
-  <si>
-    <t>James, Roeid</t>
-  </si>
-  <si>
-    <t>Derby, Pretty</t>
-  </si>
-  <si>
-    <t>Umamusume, Jane</t>
   </si>
 </sst>
 </file>
@@ -461,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D133E5EB-D9A6-4194-BE38-71DD976F7569}">
-  <dimension ref="C2:G16"/>
+  <dimension ref="C2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,74 +653,6 @@
         <v>0.38819444444444445</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>2029864221</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.42986111111111114</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>2029864921</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.47152777777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>2029855521</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.60763888888888884</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>2029888521</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.4909722222222222</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/CurrentLogDatasheet.xlsx
+++ b/data/CurrentLogDatasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\App-Dev-2-Vargas\Diner-Ecommerce-Vargas-Project-main\mapua-lab-usage-and-monitoring\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\programming shit\mapua-lab-usage-and-monitoring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F808C1E6-CD57-41E2-90F2-12A2FA157EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600DDDDC-E234-4C55-80C7-E28D1ADA2F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="1545" windowWidth="16305" windowHeight="11295" xr2:uid="{8C67381B-C88C-433D-AA1A-AD7533F48EDF}"/>
+    <workbookView xWindow="2688" yWindow="2136" windowWidth="17856" windowHeight="10824" xr2:uid="{8C67381B-C88C-433D-AA1A-AD7533F48EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -51,36 +51,21 @@
     <t>Kawasaki, Akiro</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
     <t>Alberea, Yurina</t>
   </si>
   <si>
     <t>Bloodflame, Elizabeth</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>Ookami, Mio</t>
   </si>
   <si>
-    <t>PSYA</t>
-  </si>
-  <si>
     <t>Kawasaki, Yoshiko</t>
   </si>
   <si>
-    <t>PSYB</t>
-  </si>
-  <si>
     <t>Ceres, Fauna</t>
   </si>
   <si>
-    <t>MRKT</t>
-  </si>
-  <si>
     <t>Kasimato, Ayano</t>
   </si>
   <si>
@@ -93,9 +78,6 @@
     <t>Banks, Rob</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Time In</t>
   </si>
   <si>
@@ -109,6 +91,48 @@
   </si>
   <si>
     <t>Umamusume, Jane</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Doe, Jane</t>
+  </si>
+  <si>
+    <t>Civil Engineering</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Chemical Engineering</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Kurokawa, Akane</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>Immergreen, Cecilia</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Abyssgard, Mococo</t>
   </si>
 </sst>
 </file>
@@ -144,9 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +230,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,23 +486,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D133E5EB-D9A6-4194-BE38-71DD976F7569}">
-  <dimension ref="C2:G16"/>
+  <dimension ref="C2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -491,244 +517,369 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3">
-        <v>2029112333</v>
+        <v>2026552102</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.60763888888888884</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>46054</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.5083333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4">
-        <v>2027986544</v>
+        <v>2029215627</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>46053</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.73750000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5">
-        <v>2028112332</v>
+        <v>2029112462</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
+        <v>46052</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.8208333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2040985446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>46051</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2029112333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>46051</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.60763888888888884</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2027986544</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>46050</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.5625</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>2028112332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>46049</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10">
         <v>2030236425</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>46048</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.5131944444444444</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2027102992</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>46047</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.4909722222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>2027112113</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>46046</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>2030123456</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.5131944444444444</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>2027102992</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.4909722222222222</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>2027112113</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G13" s="2">
+        <v>46045</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.4548611111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>2028125944</v>
+      </c>
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>46044</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.41736111111111113</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>2027216785</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.4548611111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>2030123456</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>46043</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.40416666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2027864221</v>
+      </c>
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.4548611111111111</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>2028125944</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>46042</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.38819444444444445</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>2029864221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>46041</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.42986111111111114</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>2029864921</v>
+      </c>
+      <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.41736111111111113</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>2027216785</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>46040</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>2029855521</v>
+      </c>
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>46039</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.60763888888888884</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2029888521</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.40416666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>2027864221</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.38819444444444445</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>2029864221</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.42986111111111114</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>2029864921</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.47152777777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>2029855521</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.60763888888888884</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>2029888521</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G20" s="2">
+        <v>46038</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.4909722222222222</v>
       </c>
     </row>
